--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>273303.5109795142</v>
+        <v>270602.294328058</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12230974.96021006</v>
+        <v>12230974.96021005</v>
       </c>
     </row>
     <row r="11">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>32.55518202532693</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>237.9688518868388</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>124.0182950532139</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -795,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>77.53355725675371</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>16.61025675414877</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>65.77030295285029</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>383.6877278154303</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.41899097776993</v>
+        <v>12.41899097776992</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899766</v>
+        <v>309.9416328899765</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.30025118863664</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>89.94183218180251</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>8.312012538751507</v>
       </c>
     </row>
     <row r="6">
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>45.72077381083786</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8005767399402</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33388804333224</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951737</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713948</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0237294698458</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9455960238325</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8398728426018</v>
+        <v>158.7608692779954</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6974299383169</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>85.82538108525623</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015378</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643649</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1307056315183</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>48.79941573259018</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>233.064870985275</v>
+        <v>35.95245435214135</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>8.90616225919158</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>64.35966650110797</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>315.3998342615266</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184549</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615216</v>
+        <v>98.88510599615208</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>206.6159908474352</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7575643133521</v>
+        <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812553</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530794</v>
+        <v>10.48847705530787</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>139.9198602230983</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905243</v>
+        <v>79.81330679905236</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>30.05706037504512</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>83.06560892428483</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>216.8180354051599</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.137643323825</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.24750433886948</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833726</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>132.6315337216688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>99.97427419833748</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695436</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>78.58522891595189</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766854</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>83.06560892428156</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766861</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>46.29306638367314</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444128</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880065</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179546</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>586.7364457822814</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="C2" t="n">
-        <v>586.7364457822814</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="D2" t="n">
-        <v>586.7364457822814</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="E2" t="n">
-        <v>586.7364457822814</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F2" t="n">
-        <v>553.8524235344764</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672984</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4358,22 +4358,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>586.7364457822814</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="V2" t="n">
-        <v>586.7364457822814</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="W2" t="n">
-        <v>586.7364457822814</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="X2" t="n">
-        <v>586.7364457822814</v>
+        <v>534.7928453799755</v>
       </c>
       <c r="Y2" t="n">
-        <v>586.7364457822814</v>
+        <v>294.4202677165019</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>601.806314549929</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="C3" t="n">
-        <v>427.3532852688019</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="D3" t="n">
-        <v>427.3532852688019</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1158302633464</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="F3" t="n">
-        <v>121.5812722902314</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004801</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4434,25 +4434,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166544</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="T3" t="n">
-        <v>887.8833378166544</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="U3" t="n">
-        <v>887.8833378166544</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="V3" t="n">
-        <v>809.5666133148829</v>
+        <v>652.7312295849119</v>
       </c>
       <c r="W3" t="n">
-        <v>809.5666133148829</v>
+        <v>398.4938728567103</v>
       </c>
       <c r="X3" t="n">
-        <v>809.5666133148829</v>
+        <v>398.4938728567103</v>
       </c>
       <c r="Y3" t="n">
-        <v>601.806314549929</v>
+        <v>190.7335740917564</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>353.7012779513406</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C4" t="n">
-        <v>184.7650950234336</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>184.7650950234336</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>184.7650950234336</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>37.87514752552329</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>37.87514752552329</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4513,25 +4513,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165359</v>
+        <v>988.4208705587013</v>
       </c>
       <c r="T4" t="n">
-        <v>848.0684854165359</v>
+        <v>762.9518343167156</v>
       </c>
       <c r="U4" t="n">
-        <v>848.0684854165359</v>
+        <v>496.5741777495375</v>
       </c>
       <c r="V4" t="n">
-        <v>848.0684854165359</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="W4" t="n">
-        <v>581.6908288493579</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X4" t="n">
-        <v>353.7012779513406</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y4" t="n">
-        <v>353.7012779513406</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1112.837688380976</v>
+        <v>821.8262933957169</v>
       </c>
       <c r="C5" t="n">
-        <v>743.8751714405646</v>
+        <v>821.8262933957169</v>
       </c>
       <c r="D5" t="n">
-        <v>743.8751714405646</v>
+        <v>463.5605947889665</v>
       </c>
       <c r="E5" t="n">
-        <v>743.8751714405646</v>
+        <v>463.5605947889665</v>
       </c>
       <c r="F5" t="n">
-        <v>356.3118100108371</v>
+        <v>456.615094039763</v>
       </c>
       <c r="G5" t="n">
-        <v>343.7673746797563</v>
+        <v>444.0706587086823</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523442</v>
+        <v>130.9983022541605</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523442</v>
+        <v>30.69501822523465</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275141</v>
+        <v>93.76641159275221</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245557</v>
+        <v>239.0325989245578</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825624</v>
+        <v>456.149911482566</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748845</v>
+        <v>729.40419317489</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202378</v>
+        <v>1011.693823202385</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798411</v>
+        <v>1264.91665479842</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189407</v>
+        <v>1446.535482189418</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261721</v>
+        <v>1534.750911261732</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261721</v>
+        <v>1534.750911261732</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261721</v>
+        <v>1534.750911261732</v>
       </c>
       <c r="T5" t="n">
-        <v>1443.900575724547</v>
+        <v>1534.750911261732</v>
       </c>
       <c r="U5" t="n">
-        <v>1443.900575724547</v>
+        <v>1534.750911261732</v>
       </c>
       <c r="V5" t="n">
-        <v>1112.837688380976</v>
+        <v>1203.688023918162</v>
       </c>
       <c r="W5" t="n">
-        <v>1112.837688380976</v>
+        <v>1203.688023918162</v>
       </c>
       <c r="X5" t="n">
-        <v>1112.837688380976</v>
+        <v>830.2222656570821</v>
       </c>
       <c r="Y5" t="n">
-        <v>1112.837688380976</v>
+        <v>821.8262933957169</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>397.2243391481429</v>
+        <v>129.0120768548632</v>
       </c>
       <c r="C6" t="n">
-        <v>397.2243391481429</v>
+        <v>129.0120768548632</v>
       </c>
       <c r="D6" t="n">
-        <v>397.2243391481429</v>
+        <v>129.0120768548632</v>
       </c>
       <c r="E6" t="n">
-        <v>351.0417393392157</v>
+        <v>129.0120768548632</v>
       </c>
       <c r="F6" t="n">
-        <v>204.5071813661007</v>
+        <v>129.0120768548632</v>
       </c>
       <c r="G6" t="n">
-        <v>67.33488162878731</v>
+        <v>129.0120768548632</v>
       </c>
       <c r="H6" t="n">
-        <v>67.33488162878731</v>
+        <v>30.69501822523465</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523442</v>
+        <v>30.69501822523465</v>
       </c>
       <c r="J6" t="n">
-        <v>49.44206107563402</v>
+        <v>49.44206107563473</v>
       </c>
       <c r="K6" t="n">
-        <v>168.1621611715532</v>
+        <v>388.9600665101459</v>
       </c>
       <c r="L6" t="n">
-        <v>362.6575050029048</v>
+        <v>583.4554103414987</v>
       </c>
       <c r="M6" t="n">
-        <v>608.9812656736503</v>
+        <v>829.7791710122456</v>
       </c>
       <c r="N6" t="n">
-        <v>876.2331282458723</v>
+        <v>1097.031033584469</v>
       </c>
       <c r="O6" t="n">
-        <v>1098.49657541139</v>
+        <v>1319.294480749988</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948666</v>
+        <v>1478.347425948677</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261721</v>
+        <v>1534.750911261732</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.34668675797</v>
+        <v>1534.750911261732</v>
       </c>
       <c r="S6" t="n">
-        <v>1530.34668675797</v>
+        <v>1390.282497655828</v>
       </c>
       <c r="T6" t="n">
-        <v>1530.34668675797</v>
+        <v>1194.377855207512</v>
       </c>
       <c r="U6" t="n">
-        <v>1302.225603078574</v>
+        <v>1034.013340785294</v>
       </c>
       <c r="V6" t="n">
-        <v>1067.073494846831</v>
+        <v>798.8612325535516</v>
       </c>
       <c r="W6" t="n">
-        <v>812.8361381186296</v>
+        <v>544.62387582535</v>
       </c>
       <c r="X6" t="n">
-        <v>604.9846379130968</v>
+        <v>336.7723756198171</v>
       </c>
       <c r="Y6" t="n">
-        <v>397.2243391481429</v>
+        <v>129.0120768548632</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>782.4671533975845</v>
+        <v>117.3873223517561</v>
       </c>
       <c r="C7" t="n">
-        <v>613.5309704696776</v>
+        <v>117.3873223517561</v>
       </c>
       <c r="D7" t="n">
-        <v>613.5309704696776</v>
+        <v>117.3873223517561</v>
       </c>
       <c r="E7" t="n">
-        <v>465.6178768872845</v>
+        <v>117.3873223517561</v>
       </c>
       <c r="F7" t="n">
-        <v>318.7279293893741</v>
+        <v>117.3873223517561</v>
       </c>
       <c r="G7" t="n">
-        <v>150.3466870274379</v>
+        <v>117.3873223517561</v>
       </c>
       <c r="H7" t="n">
-        <v>150.3466870274379</v>
+        <v>30.69501822523465</v>
       </c>
       <c r="I7" t="n">
-        <v>32.61949914709669</v>
+        <v>30.69501822523465</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523442</v>
+        <v>30.69501822523465</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223265</v>
+        <v>157.4322756223272</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830385</v>
+        <v>375.1387655830399</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388147</v>
+        <v>615.0688576388168</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974818</v>
+        <v>854.7285647974844</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891671</v>
+        <v>1060.076798891674</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934021</v>
+        <v>1212.267005934024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495183</v>
+        <v>1234.200536495187</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495183</v>
+        <v>1113.866490402744</v>
       </c>
       <c r="S7" t="n">
-        <v>1234.200536495183</v>
+        <v>1113.866490402744</v>
       </c>
       <c r="T7" t="n">
-        <v>1234.200536495183</v>
+        <v>889.2012322792888</v>
       </c>
       <c r="U7" t="n">
-        <v>1234.200536495183</v>
+        <v>600.0613614556603</v>
       </c>
       <c r="V7" t="n">
-        <v>1184.908197371354</v>
+        <v>345.3768732497734</v>
       </c>
       <c r="W7" t="n">
-        <v>1184.908197371354</v>
+        <v>345.3768732497734</v>
       </c>
       <c r="X7" t="n">
-        <v>1184.908197371354</v>
+        <v>117.3873223517561</v>
       </c>
       <c r="Y7" t="n">
-        <v>964.1156182278243</v>
+        <v>117.3873223517561</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1548.692669339133</v>
+        <v>880.6454412161675</v>
       </c>
       <c r="C8" t="n">
-        <v>1179.730152398721</v>
+        <v>880.6454412161675</v>
       </c>
       <c r="D8" t="n">
-        <v>1179.730152398721</v>
+        <v>880.6454412161675</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362822</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2308.758267664335</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2308.758267664335</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X8" t="n">
-        <v>1935.292509403255</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y8" t="n">
-        <v>1935.292509403255</v>
+        <v>880.6454412161675</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143496</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458213</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.9034178578795</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="C10" t="n">
-        <v>520.9672349299726</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8505955176369</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="E10" t="n">
-        <v>370.8505955176369</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>370.8505955176369</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.344461831649</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X10" t="n">
-        <v>1092.344461831649</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.5518826881192</v>
+        <v>60.24291006213602</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2016.155803409789</v>
+        <v>1872.090169197696</v>
       </c>
       <c r="C11" t="n">
-        <v>1647.193286469377</v>
+        <v>1553.504478024437</v>
       </c>
       <c r="D11" t="n">
-        <v>1288.927587862627</v>
+        <v>1195.238779417686</v>
       </c>
       <c r="E11" t="n">
-        <v>903.1393352643827</v>
+        <v>809.4505268194422</v>
       </c>
       <c r="F11" t="n">
-        <v>492.1534304747752</v>
+        <v>809.4505268194422</v>
       </c>
       <c r="G11" t="n">
-        <v>77.53766591592067</v>
+        <v>394.8347622605877</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592067</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592067</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706889</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656953</v>
+        <v>695.1615405656976</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625328</v>
+        <v>1216.830004625331</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087829</v>
+        <v>1828.956123087832</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.60089048404</v>
+        <v>2455.600890484044</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535293</v>
+        <v>3033.988513535298</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479992</v>
+        <v>3493.127967479997</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464058</v>
+        <v>3789.749829464063</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796033</v>
+        <v>3876.883295796039</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345374</v>
+        <v>3776.99935034538</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926739</v>
+        <v>3573.020743926744</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048267</v>
+        <v>3319.526802048273</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.463914704696</v>
+        <v>2988.463914704702</v>
       </c>
       <c r="W11" t="n">
-        <v>2779.76089364668</v>
+        <v>2635.695259434588</v>
       </c>
       <c r="X11" t="n">
-        <v>2406.295135385601</v>
+        <v>2262.229501173508</v>
       </c>
       <c r="Y11" t="n">
-        <v>2016.155803409789</v>
+        <v>1872.090169197696</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390848</v>
+        <v>88.13208718390851</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592067</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592067</v>
+        <v>193.8410919870414</v>
       </c>
       <c r="K12" t="n">
-        <v>354.4735703335448</v>
+        <v>470.7769964046659</v>
       </c>
       <c r="L12" t="n">
-        <v>691.4401992235413</v>
+        <v>889.4740370626176</v>
       </c>
       <c r="M12" t="n">
-        <v>1199.396765180069</v>
+        <v>996.4574081599342</v>
       </c>
       <c r="N12" t="n">
-        <v>1735.206074881279</v>
+        <v>1532.266717861144</v>
       </c>
       <c r="O12" t="n">
-        <v>2203.147119213801</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2559.377995458575</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>365.7608055583748</v>
+        <v>374.5442528261668</v>
       </c>
       <c r="C13" t="n">
-        <v>365.7608055583748</v>
+        <v>374.5442528261668</v>
       </c>
       <c r="D13" t="n">
-        <v>365.7608055583748</v>
+        <v>224.4276134138311</v>
       </c>
       <c r="E13" t="n">
-        <v>365.7608055583747</v>
+        <v>224.4276134138311</v>
       </c>
       <c r="F13" t="n">
-        <v>218.8708580604644</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="G13" t="n">
-        <v>218.8708580604644</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592067</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592067</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758647</v>
+        <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648143</v>
+        <v>364.1690246648146</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344807</v>
+        <v>710.5788654344813</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376939</v>
+        <v>1086.20859537694</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336947</v>
+        <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818664</v>
+        <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2042.940349010723</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742807</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925582</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>1868.627619458878</v>
+        <v>1868.62761945888</v>
       </c>
       <c r="T13" t="n">
-        <v>1647.736286893319</v>
+        <v>1647.73628689332</v>
       </c>
       <c r="U13" t="n">
-        <v>1358.64459384277</v>
+        <v>1358.644593842772</v>
       </c>
       <c r="V13" t="n">
-        <v>1103.960105636883</v>
+        <v>1103.960105636885</v>
       </c>
       <c r="W13" t="n">
-        <v>814.5429355999223</v>
+        <v>814.542935599924</v>
       </c>
       <c r="X13" t="n">
-        <v>586.553384701905</v>
+        <v>586.5533847019067</v>
       </c>
       <c r="Y13" t="n">
-        <v>365.7608055583748</v>
+        <v>556.1927176564066</v>
       </c>
     </row>
     <row r="14">
@@ -5255,13 +5255,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,43 +5270,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466574</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021787</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756786</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996073</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.972636491141</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400739</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121671</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121671</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121671</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1978.054428916699</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.979202260897</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1434.29471405501</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138438</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703137</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580265</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235169</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.50678425811</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602308</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396421</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359461</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614438</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614438</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5741,37 +5741,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2497.745796000625</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263198</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C22" t="n">
-        <v>680.4481746984129</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860772</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="E22" t="n">
-        <v>382.418441703684</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,13 +5908,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.032822456559</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5987,28 +5987,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400718</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998279</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998279</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,7 +6169,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703115</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6221,16 +6221,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,19 +6300,19 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.868625753638</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257311</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797186</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="29">
@@ -6458,16 +6458,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.55866301478</v>
@@ -6537,16 +6537,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
         <v>680.0291294438176</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400711</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.294644713841</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703108</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400711</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121642</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,13 +6874,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487567</v>
@@ -6898,10 +6898,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.294644713841</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703108</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7138,7 +7138,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>721.7774158311364</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>552.8412329032295</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K40" t="n">
         <v>435.7419440038341</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1641.625180739884</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1352.208010702924</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1124.218459804906</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>903.4258806613761</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,25 +7403,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057737</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797738</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
@@ -7585,7 +7585,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362677</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7652,7 +7652,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7673,10 +7673,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466572</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745237</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637028</v>
+        <v>34.43939438636963</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>8.609690055160655</v>
+        <v>231.6378772658588</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>223.0281872106952</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>211.0329012241562</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>49.87305750948099</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184563</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>142.6249778699778</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,10 +23431,10 @@
         <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>3.032034743419899</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927377</v>
+        <v>90.25352389927373</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>188.5275929770497</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864641</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.5874149221283744</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.5844758430678</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>45.44677382459399</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>84.77391660561949</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194171</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459376</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.2291039219424</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393099</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25078,16 +25078,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>65.54986409393079</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194171</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>144.5956654067403</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>205.8445769401549</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>65.54986409393081</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>962125.1209969121</v>
+        <v>962125.1209969127</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1059049.683037206</v>
+        <v>1059049.683037205</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1059049.683037206</v>
+        <v>1059049.683037205</v>
       </c>
     </row>
     <row r="8">
@@ -26317,43 +26317,43 @@
         <v>369468.7964389275</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389271</v>
+        <v>369468.7964389272</v>
       </c>
       <c r="E2" t="n">
-        <v>329665.1599234781</v>
+        <v>329665.1599234785</v>
       </c>
       <c r="F2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="G2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="H2" t="n">
         <v>363215.9698605028</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>363215.9698605028</v>
       </c>
-      <c r="H2" t="n">
-        <v>363215.9698605026</v>
-      </c>
-      <c r="I2" t="n">
-        <v>363215.9698605026</v>
-      </c>
       <c r="J2" t="n">
+        <v>363215.9698605028</v>
+      </c>
+      <c r="K2" t="n">
+        <v>363215.9698605028</v>
+      </c>
+      <c r="L2" t="n">
         <v>363215.9698605027</v>
-      </c>
-      <c r="K2" t="n">
-        <v>363215.9698605026</v>
-      </c>
-      <c r="L2" t="n">
-        <v>363215.9698605026</v>
       </c>
       <c r="M2" t="n">
         <v>363215.9698605028</v>
       </c>
       <c r="N2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605029</v>
       </c>
       <c r="O2" t="n">
         <v>363215.9698605028</v>
       </c>
       <c r="P2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605029</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657061</v>
+        <v>132804.2190657092</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929385</v>
+        <v>265413.0723929355</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545768</v>
+        <v>313577.1573545779</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704299</v>
+        <v>189308.2687704284</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911401</v>
+        <v>68999.15441911403</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417408</v>
+        <v>30877.4292641748</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049584</v>
+        <v>65018.34502049515</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273061</v>
+        <v>81897.40371273091</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202388</v>
+        <v>49839.5741320235</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>250332.6659748621</v>
       </c>
       <c r="C4" t="n">
-        <v>214511.7974947652</v>
+        <v>214511.7974947643</v>
       </c>
       <c r="D4" t="n">
         <v>139134.5471223413</v>
@@ -26430,13 +26430,13 @@
         <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678125</v>
@@ -26445,19 +26445,19 @@
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
+        <v>10557.08828678119</v>
+      </c>
+      <c r="M4" t="n">
+        <v>10557.08828678122</v>
+      </c>
+      <c r="N4" t="n">
         <v>10557.08828678121</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
+        <v>10557.08828678127</v>
+      </c>
+      <c r="P4" t="n">
         <v>10557.08828678121</v>
-      </c>
-      <c r="N4" t="n">
-        <v>10557.08828678119</v>
-      </c>
-      <c r="O4" t="n">
-        <v>10557.08828678119</v>
-      </c>
-      <c r="P4" t="n">
-        <v>10557.08828678125</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667488</v>
+        <v>72593.6503866751</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738561</v>
+        <v>85137.48506738571</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-623999.6533313938</v>
+        <v>-623999.653331394</v>
       </c>
       <c r="C6" t="n">
-        <v>-50440.87050821862</v>
+        <v>-50440.87050822111</v>
       </c>
       <c r="D6" t="n">
-        <v>-128016.5955161974</v>
+        <v>-128016.5955161943</v>
       </c>
       <c r="E6" t="n">
-        <v>-79501.15222561893</v>
+        <v>-79722.28353959451</v>
       </c>
       <c r="F6" t="n">
-        <v>62228.08297938445</v>
+        <v>62193.34505395021</v>
       </c>
       <c r="G6" t="n">
-        <v>251536.3517498146</v>
+        <v>251501.6138243785</v>
       </c>
       <c r="H6" t="n">
-        <v>251536.3517498142</v>
+        <v>251501.6138243787</v>
       </c>
       <c r="I6" t="n">
-        <v>251536.3517498145</v>
+        <v>251501.6138243788</v>
       </c>
       <c r="J6" t="n">
-        <v>182537.1973307003</v>
+        <v>182502.4594052647</v>
       </c>
       <c r="K6" t="n">
-        <v>220658.9224856402</v>
+        <v>220624.1845602039</v>
       </c>
       <c r="L6" t="n">
-        <v>186518.0067293185</v>
+        <v>186483.2688038835</v>
       </c>
       <c r="M6" t="n">
-        <v>169638.9480370838</v>
+        <v>169604.2101116478</v>
       </c>
       <c r="N6" t="n">
-        <v>201696.7776177906</v>
+        <v>201662.0396923554</v>
       </c>
       <c r="O6" t="n">
-        <v>251536.3517498145</v>
+        <v>251501.6138243787</v>
       </c>
       <c r="P6" t="n">
-        <v>251536.3517498144</v>
+        <v>251501.6138243788</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.821402964180819e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.331951169574</v>
+        <v>717.3319511695765</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.24123721495</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154303</v>
+        <v>383.6877278154331</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490083</v>
+        <v>969.2208239490096</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000958</v>
+        <v>103.2769374000982</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479651</v>
+        <v>216.7329409479626</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974108</v>
+        <v>268.1763450974117</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267243</v>
+        <v>165.7342631267229</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139241</v>
+        <v>119.9738478139269</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846085</v>
+        <v>256.8971042846057</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489695</v>
+        <v>328.6359918489708</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506403</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.713880001506</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139244</v>
+        <v>119.9738478139271</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846085</v>
+        <v>256.8971042846057</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489695</v>
+        <v>328.6359918489708</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506403</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139241</v>
+        <v>119.9738478139269</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846085</v>
+        <v>256.8971042846057</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489695</v>
+        <v>328.6359918489708</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506403</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>374.3208637163845</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27430,7 +27430,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>148.2690867692148</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>42.51488859665339</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27515,10 +27515,10 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>155.2670298926716</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>135.771902581708</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>138.9488612907435</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.5447505011713</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>23.18831792628117</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863703</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660376</v>
+        <v>143.3066953660374</v>
       </c>
       <c r="T5" t="n">
-        <v>120.530416915013</v>
+        <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
         <v>251.1149531848473</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>377.9259261173021</v>
       </c>
     </row>
     <row r="6">
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>111.9243066445631</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333229</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.27346476951718</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.360182258713607</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698459</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238326</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>67.07900356460641</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083602</v>
+        <v>64.90096112310391</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.5499160015376</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.905236112643337</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315185</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059547</v>
+        <v>201.4735595059546</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422208</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>203.3382275912378</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>148.8654990869867</v>
+        <v>345.9779157201204</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>137.5278003873776</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>101.9469335436962</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-8.722622624190989e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>3.038849172298796e-12</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-5.413297327935452e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.078515303262975e-12</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>9.166001291305292e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365119</v>
+        <v>2.88374653736513</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579054</v>
+        <v>29.53316922579064</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817689</v>
+        <v>111.1756383817693</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756931</v>
+        <v>244.7543826756939</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023586</v>
+        <v>366.8233736023599</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952465</v>
+        <v>455.0768316952481</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791134</v>
+        <v>506.3606591791152</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284021</v>
+        <v>514.5541040284039</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974777</v>
+        <v>485.8788493974794</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562762</v>
+        <v>414.6863567562777</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868878</v>
+        <v>311.4121838868888</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277618</v>
+        <v>181.1461434277625</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020773</v>
+        <v>65.71337422020795</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731582</v>
+        <v>12.62360046731586</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892095</v>
+        <v>0.2306997229892103</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270405</v>
+        <v>1.54294042327041</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316417</v>
+        <v>14.90155619316423</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189771</v>
+        <v>53.12316808189789</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862622</v>
+        <v>145.7740335862627</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453793</v>
+        <v>249.1510419453802</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438657</v>
+        <v>335.0143230438669</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874178</v>
+        <v>390.9459133874192</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189111</v>
+        <v>401.2930884189125</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348668</v>
+        <v>367.1047769348681</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190653</v>
+        <v>294.6339480190663</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739555</v>
+        <v>196.9549915739562</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392919</v>
+        <v>95.79765189392953</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399192</v>
+        <v>28.65944163399202</v>
       </c>
       <c r="T6" t="n">
-        <v>6.21913267098904</v>
+        <v>6.219132670989063</v>
       </c>
       <c r="U6" t="n">
-        <v>0.101509238373053</v>
+        <v>0.1015092383730533</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141855</v>
+        <v>1.293549420141859</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907941</v>
+        <v>11.50083029907945</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572052</v>
+        <v>38.90055892572065</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402913</v>
+        <v>91.45394400402944</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401173</v>
+        <v>150.2869235401178</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545445</v>
+        <v>192.3155201545452</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773273</v>
+        <v>202.769751377328</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022532</v>
+        <v>197.9483399022539</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669597</v>
+        <v>182.8373307669603</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960657</v>
+        <v>156.4489225960662</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266057</v>
+        <v>108.3171246266061</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565102</v>
+        <v>58.16268574565122</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101759</v>
+        <v>22.54303853101766</v>
       </c>
       <c r="T7" t="n">
-        <v>5.52698388606065</v>
+        <v>5.52698388606067</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864669</v>
+        <v>0.07055724109864694</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869142</v>
+        <v>4.833130601869145</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639236</v>
+        <v>49.4972987763924</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285603</v>
+        <v>186.3292675285604</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203915</v>
+        <v>410.2059184203918</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975123</v>
+        <v>614.7923367975128</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544653</v>
+        <v>762.7042574544658</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954555</v>
+        <v>848.6554437954562</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180163</v>
+        <v>862.387576118017</v>
       </c>
       <c r="O11" t="n">
-        <v>814.32813369568</v>
+        <v>814.3281336956807</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620354</v>
+        <v>695.010221962036</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825967</v>
+        <v>521.923732282597</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696627</v>
+        <v>303.599140169663</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968218</v>
+        <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495313</v>
+        <v>0.3866504481495315</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858572</v>
+        <v>2.585952849858574</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837094</v>
+        <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469206</v>
+        <v>89.03390294469213</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.3158348193138</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598379</v>
+        <v>417.5746757598382</v>
       </c>
       <c r="L12" t="n">
-        <v>478.9247119919919</v>
+        <v>561.480683474775</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821476</v>
+        <v>250.198045131429</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340502</v>
+        <v>672.5632370340506</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924471</v>
+        <v>615.2639659924475</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383443</v>
+        <v>493.8035753383447</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>330.0946129047541</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605175</v>
       </c>
       <c r="S12" t="n">
-        <v>48.0329399962765</v>
+        <v>48.03293999627655</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643798</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535155</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092167</v>
+        <v>19.27527754092168</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798451</v>
+        <v>65.19695102798455</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085355</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329025</v>
+        <v>251.8793936329027</v>
       </c>
       <c r="L13" t="n">
-        <v>322.318904810054</v>
+        <v>322.3189048100542</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770062</v>
+        <v>339.8400926770065</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531027</v>
+        <v>331.759454853103</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806237</v>
+        <v>306.4335533806239</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493063</v>
+        <v>262.2068429493065</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194574</v>
+        <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811706</v>
+        <v>97.48008457811713</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493538</v>
+        <v>37.7819090449354</v>
       </c>
       <c r="T13" t="n">
-        <v>9.26317018837748</v>
+        <v>9.263170188377487</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473722</v>
+        <v>0.1182532364473723</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270658</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319848</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>158.8462560123214</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,22 +33020,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>704.1404939038099</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33494,28 +33494,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>528.6300513467554</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33737,7 +33737,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>388.514013929771</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>440.316328560036</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,7 +34208,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34220,7 +34220,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34387,7 +34387,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>338.9915131655318</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>245.5483596572287</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900677</v>
+        <v>63.70847814900762</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573781</v>
+        <v>146.7335225573793</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252592</v>
+        <v>219.3104167252608</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518407</v>
+        <v>276.0144259518424</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318112</v>
+        <v>285.141040431813</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757909</v>
+        <v>255.7806379757926</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010067</v>
+        <v>183.4533610010081</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243828</v>
+        <v>89.10649401243936</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.93640691959556</v>
+        <v>18.93640691959604</v>
       </c>
       <c r="K6" t="n">
-        <v>119.919293026181</v>
+        <v>342.94748023688</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639915</v>
+        <v>196.4599432639927</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794653995</v>
+        <v>248.8118794654009</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355777</v>
+        <v>269.9513763355792</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904224</v>
+        <v>224.5085324904236</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6877278154303</v>
+        <v>160.659540604736</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793399</v>
+        <v>56.9732174879347</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142344</v>
+        <v>128.0174317142349</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148607</v>
+        <v>219.9055454148613</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391678</v>
+        <v>242.3536283391686</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814818</v>
+        <v>242.0805122814825</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809993</v>
+        <v>207.422458681</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609592</v>
+        <v>153.7274818609597</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491129</v>
+        <v>22.15508137491167</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215491</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35264,16 +35264,16 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>546.4575832202792</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937052</v>
+        <v>229.1600138937055</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525318</v>
+        <v>394.7024857525323</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844781</v>
+        <v>526.9378424844786</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681828</v>
+        <v>618.3092105681835</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214254</v>
+        <v>632.974512521426</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739932</v>
+        <v>584.2299222739939</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067659</v>
+        <v>463.7772262067664</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081472</v>
+        <v>299.6180424081475</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553062</v>
+        <v>88.01360235553085</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.4782081526471</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854789</v>
+        <v>279.7332367854792</v>
       </c>
       <c r="L12" t="n">
-        <v>340.3703322121177</v>
+        <v>422.9263036949008</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601292</v>
+        <v>108.0640112094106</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507169</v>
+        <v>541.2215249507174</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480026</v>
+        <v>472.6677215480031</v>
       </c>
       <c r="P12" t="n">
-        <v>359.829167924014</v>
+        <v>359.8291679240144</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>190.1128388187326</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655351</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.9167231918627</v>
+        <v>59.91672319186281</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070197</v>
+        <v>229.6099018070199</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703702</v>
+        <v>349.9089300703704</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388468</v>
+        <v>379.423969638847</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323313</v>
+        <v>375.8916272323315</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946634</v>
+        <v>331.0186812946636</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141998</v>
+        <v>259.4854022142</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776306</v>
+        <v>95.3763835677632</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410443</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875403</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572999025</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>18.86448192629984</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,22 +36668,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>397.2883392634221</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>245.9177694853266</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
